--- a/Documents/Service URLS.xlsx
+++ b/Documents/Service URLS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Method=POST, URL=  'http://localhost:3000/users/login'</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Method : 'POST', URL =  'http://localhost:3000/contact/email'</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,6 +504,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Service URLS.xlsx
+++ b/Documents/Service URLS.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
